--- a/AfDD_2024_Annex_Table_Sources.xlsx
+++ b/AfDD_2024_Annex_Table_Sources.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A594E5DA-BD39-4E91-BFA3-791F89D346D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5F0D69-8F81-4FC6-9EE6-9150D5013BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="0" windowWidth="19200" windowHeight="21150" xr2:uid="{996CB379-A649-4727-8B86-0F5A74193FF9}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{1792B844-8123-450E-8AE8-67E224DFF2F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="134">
-  <si>
-    <t>Back to Contents</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="133">
   <si>
     <t>List of sources</t>
   </si>
@@ -209,7 +206,7 @@
     <t>International Labour Organization (ILO)</t>
   </si>
   <si>
-    <t>Retrieved 14/05/2023</t>
+    <t>Various datasets, downloaded after November, 2023</t>
   </si>
   <si>
     <t>www.ilo.org/ilostat</t>
@@ -428,13 +425,13 @@
     <t>https://population.un.org/wup/</t>
   </si>
   <si>
-    <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2023</t>
+    <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2024</t>
   </si>
   <si>
     <t>To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here.</t>
   </si>
   <si>
-    <t>To download the entire dataset as a flat file in compressed CSV form, click here.</t>
+    <t>TUN1t8pfav!2024!!!</t>
   </si>
 </sst>
 </file>
@@ -445,7 +442,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -469,6 +466,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFD42C2D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Calibri Light"/>
@@ -480,7 +485,7 @@
       <i/>
       <u/>
       <sz val="12"/>
-      <color theme="10"/>
+      <color rgb="FFD42C2D"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -506,9 +511,11 @@
       <left/>
       <right/>
       <top style="medium">
-        <color rgb="FF0F793D"/>
+        <color rgb="FFD42C2D"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -517,37 +524,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma 2" xfId="2" xr:uid="{951D231F-E0BC-4369-BBAD-FB0E3844AAEF}"/>
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{6A58B843-082C-45A0-B7F0-731789441DB3}"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -684,7 +688,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor rgb="FFFBE3DB"/>
         </patternFill>
       </fill>
       <border diagonalUp="0" diagonalDown="0">
@@ -718,7 +722,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{0BD07310-EB51-469E-A6A0-3A41728F191F}">
+    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{42F28DE4-4D30-4388-8139-A1AF92B73322}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="firstRowStripe" dxfId="7"/>
@@ -736,13 +740,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{416974D8-E495-4F5A-ACEB-F709B0145CBE}" name="Table363" displayName="Table363" ref="B3:E37" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="B3:E37" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0233833B-6845-44BC-85E9-1013AA6DEEC8}" name="Table363" displayName="Table363" ref="B2:E36" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
   <tableColumns count="4">
-    <tableColumn id="5" xr3:uid="{5773D9F5-856E-454C-9EBA-BA281EA5752A}" name="Sources" dataDxfId="3" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{6C600CB2-5563-475E-BD2E-337F935E5E21}" name="Organisation" dataDxfId="2"/>
-    <tableColumn id="1" xr3:uid="{93D2DCDC-8823-4D88-AE46-C55DFCDA52ED}" name="Latest update" dataDxfId="1" dataCellStyle="Comma 2"/>
-    <tableColumn id="4" xr3:uid="{4F3C6C02-A8AD-48FC-BB8E-79E2D788EFD4}" name="URL" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{A85ACF5F-FA63-48E4-BB6F-93F24556DEE7}" name="Sources" dataDxfId="3" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{00A82614-42DF-4660-A1F2-11F0ACE626C6}" name="Organisation" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{DF1EA527-1904-4A54-8847-D81974A70F87}" name="Latest update" dataDxfId="1" dataCellStyle="Comma 2"/>
+    <tableColumn id="4" xr3:uid="{83035A37-0B61-499A-BBC0-886450451433}" name="URL" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="AfDD Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1044,823 +1047,821 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B44A7BA-D45E-4C77-9011-7FEF6E800A4C}">
-  <sheetPr codeName="Sheet22"/>
-  <dimension ref="A1:E118"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F462396-1ED2-41E1-B2BB-D4D28AFA739B}">
+  <dimension ref="A1:E117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" style="1" customWidth="1"/>
-    <col min="2" max="2" width="58.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="66.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="61.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
       <c r="B3" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="7" t="s">
+    </row>
+    <row r="4" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="7" t="s">
+    </row>
+    <row r="5" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="D5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="7" t="s">
+    </row>
+    <row r="6" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="E6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="7" t="s">
+    </row>
+    <row r="7" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="E7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="7" t="s">
+    </row>
+    <row r="8" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="E8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="7" t="s">
+    </row>
+    <row r="9" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="D9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="E9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="7" t="s">
+    </row>
+    <row r="10" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="D10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="E10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="7" t="s">
+    </row>
+    <row r="11" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="D11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="E11" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="7" t="s">
+    </row>
+    <row r="12" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="D12" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="E12" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="7" t="s">
+    </row>
+    <row r="13" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="7" t="s">
+      <c r="C13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="8" t="s">
+      <c r="E13" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="7" t="s">
+    </row>
+    <row r="14" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="6" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="7" t="s">
+      <c r="C14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="8" t="s">
+      <c r="E14" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="7" t="s">
+    </row>
+    <row r="15" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="6" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="E15" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="7" t="s">
+    </row>
+    <row r="16" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="6" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="D16" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="E16" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="7" t="s">
+    </row>
+    <row r="17" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="6" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="E17" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="7" t="s">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="6" t="s">
         <v>63</v>
       </c>
+      <c r="C18" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="7" t="s">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6" t="s">
         <v>67</v>
       </c>
+      <c r="C19" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="7" t="s">
+      <c r="A20" s="4"/>
+      <c r="B20" s="6" t="s">
         <v>71</v>
       </c>
+      <c r="C20" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="7" t="s">
+      <c r="A21" s="4"/>
+      <c r="B21" s="6" t="s">
         <v>75</v>
       </c>
+      <c r="C21" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" s="7" t="s">
+      <c r="A22" s="4"/>
+      <c r="B22" s="6" t="s">
         <v>79</v>
       </c>
+      <c r="C22" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="7">
+        <v>2020</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="7" t="s">
+      <c r="A23" s="4"/>
+      <c r="B23" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" s="8">
-        <v>2020</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>86</v>
+      <c r="D24" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E25" s="7" t="s">
+      <c r="A25" s="4"/>
+      <c r="B25" s="6" t="s">
         <v>89</v>
       </c>
+      <c r="C25" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="7" t="s">
+      <c r="A26" s="4"/>
+      <c r="B26" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>93</v>
+      <c r="D26" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E27" s="7" t="s">
+      <c r="A27" s="4"/>
+      <c r="B27" s="6" t="s">
         <v>96</v>
       </c>
+      <c r="C27" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E28" s="7" t="s">
+      <c r="A28" s="4"/>
+      <c r="B28" s="6" t="s">
         <v>100</v>
       </c>
+      <c r="C28" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="E29" s="7" t="s">
+      <c r="A29" s="4"/>
+      <c r="B29" s="6" t="s">
         <v>104</v>
       </c>
+      <c r="C29" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="E30" s="7" t="s">
+      <c r="A30" s="4"/>
+      <c r="B30" s="6" t="s">
         <v>108</v>
       </c>
+      <c r="C30" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E31" s="7" t="s">
+      <c r="A31" s="4"/>
+      <c r="B31" s="6" t="s">
         <v>111</v>
       </c>
+      <c r="C31" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E32" s="7" t="s">
+      <c r="A32" s="4"/>
+      <c r="B32" s="6" t="s">
         <v>114</v>
       </c>
+      <c r="C32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="E33" s="7" t="s">
+      <c r="A33" s="4"/>
+      <c r="B33" s="6" t="s">
         <v>117</v>
       </c>
+      <c r="C33" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E34" s="7" t="s">
+      <c r="A34" s="4"/>
+      <c r="B34" s="6" t="s">
         <v>120</v>
       </c>
+      <c r="C34" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="E35" s="7" t="s">
+      <c r="A35" s="4"/>
+      <c r="B35" s="6" t="s">
         <v>124</v>
       </c>
+      <c r="C35" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="7" t="s">
+      <c r="A36" s="4"/>
+      <c r="B36" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>128</v>
+      <c r="D36" s="7">
+        <v>2018</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D37" s="8">
-        <v>2018</v>
-      </c>
-      <c r="E37" s="7" t="s">
+      <c r="A37" s="4"/>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="9" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="10" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="2"/>
-    </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" s="2" t="s">
+      <c r="A41" s="4"/>
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="D53" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="B42" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="5"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="5"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="5"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="5"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="5"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="5"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="5"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="5"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="5"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="5"/>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="5"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="5"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="5"/>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="4"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="4"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="5"/>
+      <c r="A65" s="4"/>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="5"/>
+      <c r="A66" s="4"/>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="5"/>
+      <c r="A67" s="4"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="5"/>
+      <c r="A68" s="4"/>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="5"/>
+      <c r="A69" s="4"/>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="5"/>
+      <c r="A70" s="4"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="5"/>
+      <c r="A71" s="4"/>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="5"/>
+      <c r="A72" s="4"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="5"/>
+      <c r="A73" s="4"/>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="5"/>
+      <c r="A74" s="4"/>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="5"/>
+      <c r="A75" s="4"/>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="5"/>
+      <c r="A76" s="4"/>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="5"/>
+      <c r="A77" s="4"/>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="5"/>
+      <c r="A78" s="4"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="5"/>
+      <c r="A79" s="4"/>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="5"/>
+      <c r="A80" s="4"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="5"/>
+      <c r="A81" s="4"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="5"/>
+      <c r="A82" s="4"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="5"/>
+      <c r="A83" s="4"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="5"/>
+      <c r="A84" s="4"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="5"/>
+      <c r="A85" s="4"/>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="5"/>
+      <c r="A86" s="4"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="5"/>
+      <c r="A87" s="4"/>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="5"/>
+      <c r="A88" s="4"/>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="5"/>
+      <c r="A89" s="4"/>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="5"/>
+      <c r="A90" s="4"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="5"/>
+      <c r="A91" s="4"/>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="5"/>
+      <c r="A92" s="4"/>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="5"/>
+      <c r="A93" s="4"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="5"/>
+      <c r="A94" s="4"/>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="5"/>
+      <c r="A95" s="4"/>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="5"/>
+      <c r="A96" s="4"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="5"/>
+      <c r="A97" s="4"/>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="5"/>
+      <c r="A98" s="4"/>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="5"/>
+      <c r="A99" s="4"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="5"/>
+      <c r="A100" s="4"/>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="5"/>
+      <c r="A101" s="4"/>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="5"/>
+      <c r="A102" s="4"/>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="5"/>
+      <c r="A103" s="4"/>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="5"/>
+      <c r="A104" s="4"/>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="5"/>
+      <c r="A105" s="4"/>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="5"/>
+      <c r="A106" s="4"/>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
+      <c r="A107" s="4"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="5"/>
+      <c r="A108" s="4"/>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="5"/>
+      <c r="A109" s="4"/>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="5"/>
+      <c r="A110" s="4"/>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="5"/>
+      <c r="A111" s="4"/>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="5"/>
+      <c r="A112" s="4"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="5"/>
+      <c r="A113" s="4"/>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="5"/>
+      <c r="A114" s="4"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="5"/>
+      <c r="A115" s="4"/>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="5"/>
+      <c r="A116" s="4"/>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="5"/>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="5"/>
+      <c r="A117" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="Contents!A1" display="Back to Contents" xr:uid="{B549C996-0F13-4C19-8B5F-64B02D1696EE}"/>
-    <hyperlink ref="B39" r:id="rId1" xr:uid="{ECABBD08-ED50-4FD2-9997-DA15CD944E13}"/>
-    <hyperlink ref="B42" r:id="rId2" xr:uid="{405D0EA4-E7FB-4DB9-827B-1A2F975AEDB8}"/>
-    <hyperlink ref="B41" r:id="rId3" xr:uid="{812C7B3B-60D4-4A90-A021-C7F8DE7945CB}"/>
+    <hyperlink ref="B38" r:id="rId1" xr:uid="{9B63137D-AC85-4CA6-8358-41893A836630}"/>
+    <hyperlink ref="B40" r:id="rId2" xr:uid="{285A4F9E-50AB-4675-BA27-3B09C62911DB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K0000FF Restricted Use - À usage restreint</oddFooter>
+  </headerFooter>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/AfDD_2024_Annex_Table_Sources.xlsx
+++ b/AfDD_2024_Annex_Table_Sources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5F0D69-8F81-4FC6-9EE6-9150D5013BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558C9ECA-5A07-4E0F-8BD8-AD8DD73BCACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{1792B844-8123-450E-8AE8-67E224DFF2F4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{273E4873-90BF-439C-BB69-3344271F1EA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>
@@ -551,7 +551,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma 2" xfId="2" xr:uid="{6A58B843-082C-45A0-B7F0-731789441DB3}"/>
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{B9387D22-199B-4FEC-8B58-24439A82E9B0}"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -722,7 +722,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{42F28DE4-4D30-4388-8139-A1AF92B73322}">
+    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{0D6CBCB0-51CA-4855-87E1-2429E11B1735}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="firstRowStripe" dxfId="7"/>
@@ -740,12 +740,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0233833B-6845-44BC-85E9-1013AA6DEEC8}" name="Table363" displayName="Table363" ref="B2:E36" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F8316421-C9D8-4696-A4F4-9DEF7C75D100}" name="Table363" displayName="Table363" ref="B2:E36" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
   <tableColumns count="4">
-    <tableColumn id="5" xr3:uid="{A85ACF5F-FA63-48E4-BB6F-93F24556DEE7}" name="Sources" dataDxfId="3" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{00A82614-42DF-4660-A1F2-11F0ACE626C6}" name="Organisation" dataDxfId="2"/>
-    <tableColumn id="1" xr3:uid="{DF1EA527-1904-4A54-8847-D81974A70F87}" name="Latest update" dataDxfId="1" dataCellStyle="Comma 2"/>
-    <tableColumn id="4" xr3:uid="{83035A37-0B61-499A-BBC0-886450451433}" name="URL" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{30C77864-E8B0-47CD-855D-330315845307}" name="Sources" dataDxfId="3" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{E42E3DDA-474B-469B-9BF4-B20468172622}" name="Organisation" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{813078C5-BF83-4DB7-97E2-448C4D7370C1}" name="Latest update" dataDxfId="1" dataCellStyle="Comma 2"/>
+    <tableColumn id="4" xr3:uid="{F96A5ADD-F44E-41C3-8DBA-4DF2DF003323}" name="URL" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="AfDD Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1047,7 +1047,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F462396-1ED2-41E1-B2BB-D4D28AFA739B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FFF1E5B-9276-49F7-85E8-0A59632F766F}">
   <dimension ref="A1:E117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
@@ -1852,8 +1852,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B38" r:id="rId1" xr:uid="{9B63137D-AC85-4CA6-8358-41893A836630}"/>
-    <hyperlink ref="B40" r:id="rId2" xr:uid="{285A4F9E-50AB-4675-BA27-3B09C62911DB}"/>
+    <hyperlink ref="B38" r:id="rId1" xr:uid="{E8266D69-CE5F-4091-9DA5-282C110EEA52}"/>
+    <hyperlink ref="B40" r:id="rId2" xr:uid="{08C7E495-334E-4DC6-BFBB-BB47A62563D6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/AfDD_2024_Annex_Table_Sources.xlsx
+++ b/AfDD_2024_Annex_Table_Sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558C9ECA-5A07-4E0F-8BD8-AD8DD73BCACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21A625C-7144-41C4-A188-4DCF26522ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{273E4873-90BF-439C-BB69-3344271F1EA3}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{11CBA699-C5B6-4638-B107-F8842D9DE320}"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>
@@ -551,7 +551,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma 2" xfId="2" xr:uid="{B9387D22-199B-4FEC-8B58-24439A82E9B0}"/>
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{DDB3CE85-3003-4F41-B0BE-EAD953F3E1C5}"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -722,7 +722,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{0D6CBCB0-51CA-4855-87E1-2429E11B1735}">
+    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{A6478F9E-34BD-4231-83AE-4C4E5C735DFD}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="firstRowStripe" dxfId="7"/>
@@ -740,12 +740,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F8316421-C9D8-4696-A4F4-9DEF7C75D100}" name="Table363" displayName="Table363" ref="B2:E36" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A490453F-0EB0-48D1-86ED-69C059A44F3F}" name="Table363" displayName="Table363" ref="B2:E36" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
   <tableColumns count="4">
-    <tableColumn id="5" xr3:uid="{30C77864-E8B0-47CD-855D-330315845307}" name="Sources" dataDxfId="3" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{E42E3DDA-474B-469B-9BF4-B20468172622}" name="Organisation" dataDxfId="2"/>
-    <tableColumn id="1" xr3:uid="{813078C5-BF83-4DB7-97E2-448C4D7370C1}" name="Latest update" dataDxfId="1" dataCellStyle="Comma 2"/>
-    <tableColumn id="4" xr3:uid="{F96A5ADD-F44E-41C3-8DBA-4DF2DF003323}" name="URL" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{7B0F7DD9-9B7B-4D70-A927-FA15D3C8CD23}" name="Sources" dataDxfId="3" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{C738E5E8-A2BB-45BC-B7CC-CE2DBC42D900}" name="Organisation" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{1AC5F4B5-0D6D-442A-96BC-0C4779C54D1F}" name="Latest update" dataDxfId="1" dataCellStyle="Comma 2"/>
+    <tableColumn id="4" xr3:uid="{D106DBF3-59B6-4C4F-B2FF-1C81F9989AC1}" name="URL" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="AfDD Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1047,7 +1047,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FFF1E5B-9276-49F7-85E8-0A59632F766F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49DF27FA-34D1-44F6-97C9-2220EE8529D3}">
   <dimension ref="A1:E117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
@@ -1852,8 +1852,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B38" r:id="rId1" xr:uid="{E8266D69-CE5F-4091-9DA5-282C110EEA52}"/>
-    <hyperlink ref="B40" r:id="rId2" xr:uid="{08C7E495-334E-4DC6-BFBB-BB47A62563D6}"/>
+    <hyperlink ref="B38" r:id="rId1" xr:uid="{2C4BAAC4-AE35-4AFB-807F-FF90D1A04416}"/>
+    <hyperlink ref="B40" r:id="rId2" xr:uid="{E7DB78EE-44AB-4F3A-8DDE-D871E112590D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/AfDD_2024_Annex_Table_Sources.xlsx
+++ b/AfDD_2024_Annex_Table_Sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21A625C-7144-41C4-A188-4DCF26522ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1681C85-F8AF-4CCC-9584-1BFA01A8BE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{11CBA699-C5B6-4638-B107-F8842D9DE320}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{39047A2C-F31B-4337-B9DB-D58C992C946A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>
@@ -551,7 +551,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma 2" xfId="2" xr:uid="{DDB3CE85-3003-4F41-B0BE-EAD953F3E1C5}"/>
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{FBD63874-F0D5-47DC-8E5C-48BD929334A6}"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -722,7 +722,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{A6478F9E-34BD-4231-83AE-4C4E5C735DFD}">
+    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{B69F9423-E52C-4AB8-B95C-44601F83F533}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="firstRowStripe" dxfId="7"/>
@@ -740,12 +740,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A490453F-0EB0-48D1-86ED-69C059A44F3F}" name="Table363" displayName="Table363" ref="B2:E36" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D88CE44C-6C45-45B7-AC77-C72BB21F4226}" name="Table363" displayName="Table363" ref="B2:E36" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
   <tableColumns count="4">
-    <tableColumn id="5" xr3:uid="{7B0F7DD9-9B7B-4D70-A927-FA15D3C8CD23}" name="Sources" dataDxfId="3" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{C738E5E8-A2BB-45BC-B7CC-CE2DBC42D900}" name="Organisation" dataDxfId="2"/>
-    <tableColumn id="1" xr3:uid="{1AC5F4B5-0D6D-442A-96BC-0C4779C54D1F}" name="Latest update" dataDxfId="1" dataCellStyle="Comma 2"/>
-    <tableColumn id="4" xr3:uid="{D106DBF3-59B6-4C4F-B2FF-1C81F9989AC1}" name="URL" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{599ADB4D-6936-4F9A-AB6C-D2E9C85E1766}" name="Sources" dataDxfId="3" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{2B3D4CFE-D1A3-45FB-8034-32011B5BDBDC}" name="Organisation" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{81264B4B-B283-46B4-9AC7-A17243E7C42D}" name="Latest update" dataDxfId="1" dataCellStyle="Comma 2"/>
+    <tableColumn id="4" xr3:uid="{11BB5B88-3DDD-4382-B7DE-9EDE297E8642}" name="URL" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="AfDD Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1047,7 +1047,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49DF27FA-34D1-44F6-97C9-2220EE8529D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E8FEF0-D2F1-4936-8F67-E9956DAF15A6}">
   <dimension ref="A1:E117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
@@ -1852,8 +1852,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B38" r:id="rId1" xr:uid="{2C4BAAC4-AE35-4AFB-807F-FF90D1A04416}"/>
-    <hyperlink ref="B40" r:id="rId2" xr:uid="{E7DB78EE-44AB-4F3A-8DDE-D871E112590D}"/>
+    <hyperlink ref="B38" r:id="rId1" xr:uid="{F9E30D0D-9B5A-4430-A659-BB496600CDAA}"/>
+    <hyperlink ref="B40" r:id="rId2" xr:uid="{09A93708-D9E4-489F-ADF8-47B4DB024C78}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
